--- a/InputData/plcy-ctrl-ctr/BUTYGV/Boolean Use Twenty Year GWP Values.xlsx
+++ b/InputData/plcy-ctrl-ctr/BUTYGV/Boolean Use Twenty Year GWP Values.xlsx
@@ -718,13 +718,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA0E32AD-8268-45C0-A2CF-94FF0ED96438}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19DD2B65-B111-4E83-82C9-26C8099468B5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544BFEF3-015B-4D14-8422-0B579394D4E5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FA4D245-DD42-49A3-BA89-73D4DB2CC580}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99A5EF28-A4D9-422F-B162-E0AECA992784}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8054ECBD-EE19-4E90-B527-44E738E6B97C}"/>
 </file>